--- a/Semana05/Proyectos.xlsx
+++ b/Semana05/Proyectos.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UCONT\FUND-PROG\02 RecursosPresenciales\UNIDAD II\Semana 05\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GITHUB\UCONT\UC-2022-10-17583\Semana05\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66C0886D-EC8E-4DE8-A54F-4ECECE80416B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3921BE-6A46-45AA-8A4F-E7CC0ECB8816}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -65,12 +65,6 @@
     <t>CANT. BILLETES = IMPORTE / VALOR BILLETE</t>
   </si>
   <si>
-    <t>RANGO DE NOTA</t>
-  </si>
-  <si>
-    <t>FACTOR A MULTIPLICAR</t>
-  </si>
-  <si>
     <t>0 – 5</t>
   </si>
   <si>
@@ -86,10 +80,19 @@
     <t>RANGO</t>
   </si>
   <si>
-    <t>BONO MAXIMO</t>
-  </si>
-  <si>
     <t>Promedio 13: 5*50 + 7*80 + 1*120 = 930</t>
+  </si>
+  <si>
+    <t>RANGO
+DE NOTA</t>
+  </si>
+  <si>
+    <t>FACTOR A
+MULTIPLICAR</t>
+  </si>
+  <si>
+    <t>BONO
+MAXIMO</t>
   </si>
 </sst>
 </file>
@@ -719,33 +722,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:F10"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="22.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" customWidth="1"/>
-    <col min="5" max="5" width="26.42578125" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="8" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="2:6" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
@@ -753,7 +757,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="9">
         <v>5</v>
@@ -771,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D5" s="9">
         <v>7</v>
@@ -789,7 +793,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D6" s="9">
         <v>5</v>
@@ -807,7 +811,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D7" s="9">
         <v>3</v>
@@ -828,7 +832,7 @@
     </row>
     <row r="10" spans="2:6" ht="26.25" x14ac:dyDescent="0.25">
       <c r="C10" s="10" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
